--- a/biology/Médecine/René_François/René_François.xlsx
+++ b/biology/Médecine/René_François/René_François.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Fran%C3%A7ois</t>
+          <t>René_François</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antonin René Rémy François, né le 6 octobre 1922 à Vienne (Isère) et mort le 6 février 2003 à Pierre-Bénite dans la banlieue lyonnaise[1], est un pédiatre français, spécialiste d'endocrinologie infantile, ayant eu une carrière hospitalo-universitaire à Lyon.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antonin René Rémy François, né le 6 octobre 1922 à Vienne (Isère) et mort le 6 février 2003 à Pierre-Bénite dans la banlieue lyonnaise, est un pédiatre français, spécialiste d'endocrinologie infantile, ayant eu une carrière hospitalo-universitaire à Lyon.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Fran%C3%A7ois</t>
+          <t>René_François</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son père, Rémy François, est directeur commercial. Sa mère se nomme Madeleine Bastet[2]. René François effectue sa scolarité à l'institution Saint-Maurice à Vienne, puis ses études à la faculté de médecine de Lyon. Il est reçu à l'internat des Hôpitaux de Lyon en 1946. En 1948, Il épouse Françoise Porte avec qui il aura trois garçons : Hugues, Jean-Luc et Yves[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père, Rémy François, est directeur commercial. Sa mère se nomme Madeleine Bastet. René François effectue sa scolarité à l'institution Saint-Maurice à Vienne, puis ses études à la faculté de médecine de Lyon. Il est reçu à l'internat des Hôpitaux de Lyon en 1946. En 1948, Il épouse Françoise Porte avec qui il aura trois garçons : Hugues, Jean-Luc et Yves.
 À l'issue de son internat, après avoir soutenu sa thèse de doctorat en médecine (en 1950), il occupe un poste de chargé de recherches à la  Research Foundation de l’hôpital pour enfants (en) de Cincinnati (USA). De retour à Lyon, il effectue un clinicat de 3 ans (1952-1955) à l'issue duquel il est nommé professeur agrégé de pédiatrie. Il est chef du Service de pédiatrie de l'hôpital Édouard-Herriot en 1963 et professeur titulaire à la faculté de médecine de Lyon en 1964. En 1980, il devient membre du conseil d'administration des Hospices civils de Lyon.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Fran%C3%A7ois</t>
+          <t>René_François</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pneumonie à virus et pneumonie primitive atypique (Vigot, Paris, 1950)[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pneumonie à virus et pneumonie primitive atypique (Vigot, Paris, 1950)
 l'Enfant diabétique (1968)</t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Fran%C3%A7ois</t>
+          <t>René_François</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Officier de la Légion d'honneur
 Commandeur de l'ordre national du Mérite
